--- a/Base/Base Changes Index.xlsx
+++ b/Base/Base Changes Index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8848C58-EF24-48C8-84D8-933AE77552A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BA038-792D-4030-865E-9425BF8EE954}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1267,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1733,10 @@
       <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="16" t="str">
+        <f>HYPERLINK(".\Configure%20MODBUS%20TCP%20for%20Smart%20Meter.docx", "Configure ModBus TCP for Smart Meter")</f>
+        <v>Configure ModBus TCP for Smart Meter</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
@@ -1757,6 +1761,9 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="12"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Base/Base Changes Index.xlsx
+++ b/Base/Base Changes Index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BA038-792D-4030-865E-9425BF8EE954}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1902FBA-0611-45B6-ABC8-93E7F10C8BA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Changes</t>
   </si>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1451,10 @@
       <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="16" t="str">
+        <f>HYPERLINK("./Synchronize%20Equipment%20Counter%20with%20Line%20During%20End%20Job.docx", "Synchronize Equipment Counter with Line During End Order")</f>
+        <v>Synchronize Equipment Counter with Line During End Order</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,7 +1530,9 @@
       <c r="E13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1602,8 +1607,8 @@
         <v>30</v>
       </c>
       <c r="F17" s="16" t="str">
-        <f>HYPERLINK("./Synchronize%20Equipment%20Counter%20with%20Line%20During%20End%20Job.docx", "Synchronize Equipment Counter with Line During End Order")</f>
-        <v>Synchronize Equipment Counter with Line During End Order</v>
+        <f>HYPERLINK("./Enhanced%20Logout%20Reminder%20Logic%20on%20Shift%20Change.docx", "Enhanced Logout Reminder Logic on Shift Change")</f>
+        <v>Enhanced Logout Reminder Logic on Shift Change</v>
       </c>
       <c r="G17" s="1"/>
     </row>

--- a/Base/Base Changes Index.xlsx
+++ b/Base/Base Changes Index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1902FBA-0611-45B6-ABC8-93E7F10C8BA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDE51C3-1ABB-4401-B897-EE36570276E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Changes</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>ngsfr_I_CrewN</t>
-  </si>
-  <si>
-    <t>ngsfr_Intf_Item_Process_Link</t>
   </si>
   <si>
     <t>Auto assign SKU to category when PO imported</t>
@@ -315,6 +312,10 @@
   <si>
     <t>$HSLMODBUSClient
 $ngs_Dec2Hex2Dec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngsfr_Intf_Item_Process_Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1272,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1287,22 +1288,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1317,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="1"/>
@@ -1330,17 +1331,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1349,14 +1350,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="1"/>
@@ -1366,14 +1367,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="1"/>
@@ -1383,17 +1384,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1402,19 +1403,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1423,14 +1424,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="1"/>
@@ -1440,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="16" t="str">
         <f>HYPERLINK("./Synchronize%20Equipment%20Counter%20with%20Line%20During%20End%20Job.docx", "Synchronize Equipment Counter with Line During End Order")</f>
@@ -1462,19 +1463,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1483,18 +1484,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,16 +1505,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="1"/>
@@ -1521,17 +1524,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1540,14 +1543,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
@@ -1557,17 +1560,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1576,16 +1579,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -1595,16 +1598,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="16" t="str">
         <f>HYPERLINK("./Enhanced%20Logout%20Reminder%20Logic%20on%20Shift%20Change.docx", "Enhanced Logout Reminder Logic on Shift Change")</f>
@@ -1617,14 +1620,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1"/>
@@ -1634,14 +1637,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -1650,14 +1653,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="16" t="str">
         <f>HYPERLINK("./Auto%20Start%20or%20End%20WO%20on%20Equipment.docx", "Auto Start or End WO on Equipment")</f>
@@ -1669,14 +1672,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -1685,16 +1688,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="F22" s="16" t="str">
         <f>HYPERLINK("./Add%20Zero%20Production%20Count.docx", "Add Zero Production Count")</f>
@@ -1706,16 +1709,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="16" t="str">
         <f>HYPERLINK("./Quick%20Selection%20of%20Downtime.docx", "Quick Selection of Unknown Downtime")</f>
@@ -1727,16 +1730,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D24" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="16" t="str">
         <f>HYPERLINK(".\Configure%20MODBUS%20TCP%20for%20Smart%20Meter.docx", "Configure ModBus TCP for Smart Meter")</f>
@@ -1804,30 +1807,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1840,7 +1843,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <v>60</v>
@@ -1851,13 +1854,13 @@
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1869,10 +1872,10 @@
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -1885,7 +1888,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>30</v>
@@ -1898,7 +1901,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -1911,7 +1914,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>

--- a/Base/Base Changes Index.xlsx
+++ b/Base/Base Changes Index.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDE51C3-1ABB-4401-B897-EE36570276E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4450B3-3FEF-45E3-BE2B-782061163993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>Changes</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>ngsfr_Intf_Item_Process_Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notification for EOHS Input during Combined Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operaDatalog_SX
+Script_Send_EOHS_Message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1747,12 +1756,25 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="16" t="str">
+        <f>HYPERLINK(".\Notification%20for%20EOHS%20Input%20Inspection.docx", "Notification for EOHS Input Inspection")</f>
+        <v>Notification for EOHS Input Inspection</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
